--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5331854E-F8AE-4152-9652-4F8DAFE2C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDB6E2-C954-4A85-98AA-2F58DEDF46FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -175,25 +175,16 @@
     <t>1918, 1943, BorisIII, Info</t>
   </si>
   <si>
-    <t>Edit Name: Boris III</t>
-  </si>
-  <si>
     <t>Sorting The Nodes</t>
   </si>
   <si>
     <t>969/1014 - Samuil</t>
   </si>
   <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>Delete BorisIII</t>
   </si>
   <si>
-    <t>Norhing</t>
+    <t>Edit Boris III</t>
   </si>
 </sst>
 </file>
@@ -231,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,9 +277,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,16 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -335,6 +310,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +634,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,28 +651,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -735,10 +716,10 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -764,10 +745,10 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -793,10 +774,10 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>14</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -828,15 +809,15 @@
       <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G7" s="5" t="str">
+        <f t="shared" ref="G7:G21" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I7" s="5" t="str">
+        <f t="shared" ref="I7:I21" si="1">"05.02.2022"</f>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -859,77 +840,77 @@
       <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="12" t="str">
-        <f>"14.02.2022"</f>
-        <v>14.02.2022</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="12" t="str">
-        <f>"05.02.2022"</f>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="12" t="str">
-        <f>"14.02.2022"</f>
-        <v>14.02.2022</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="12" t="str">
-        <f>"05.02.2022"</f>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -952,15 +933,15 @@
       <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -983,15 +964,15 @@
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1008,21 +989,21 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1918</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>1918</v>
       </c>
-      <c r="G13" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1036,24 +1017,24 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1061,30 +1042,30 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <f>"14.02.2022"</f>
-        <v>14.02.2022</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="12" t="str">
-        <f>"05.02.2022"</f>
+      <c r="F15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1092,30 +1073,30 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="12" t="str">
-        <f>"14.02.2022"</f>
-        <v>14.02.2022</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="12" t="str">
-        <f>"05.02.2022"</f>
+      <c r="F16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1129,24 +1110,24 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>50</v>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="6" t="str">
-        <f>"14.02.2022"</f>
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1160,24 +1141,24 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>50</v>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="6" t="str">
-        <f>"14.02.2022"</f>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1195,20 +1176,20 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="6" t="str">
-        <f>"14.02.2022"</f>
+        <v>46</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="6" t="str">
-        <f>"05.02.2022"</f>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1226,51 +1207,51 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="6" t="str">
-        <f>"14.02.2022"</f>
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>14.02.2022</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="6" t="str">
-        <f>"05.02.2022"</f>
-        <v>05.02.2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>05.02.2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="20" t="str">
-        <f>"14.02.2022"</f>
-        <v>14.02.2022</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="20" t="str">
-        <f>"05.02.2022"</f>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>05.02.2022</v>
       </c>
     </row>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект\Linked-Lists-History\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDB6E2-C954-4A85-98AA-2F58DEDF46FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908C307-1279-4E28-B815-2927EC6DA2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>void insertNodeAfterYear()</t>
-  </si>
-  <si>
-    <t>earching the year before inserting an element in the  list</t>
   </si>
   <si>
     <t>void insertAfterNode()</t>
@@ -185,6 +182,22 @@
   </si>
   <si>
     <t>Edit Boris III</t>
+  </si>
+  <si>
+    <t>searching the year before inserting an element in the  list</t>
+  </si>
+  <si>
+    <t>1331/1371 - Ivan Aleksandur</t>
+  </si>
+  <si>
+    <t>13.02.2022</t>
+  </si>
+  <si>
+    <t>Ivan Aleksandur - 1331/1371</t>
+  </si>
+  <si>
+    <t>Ivan Aleksandur
+Info</t>
   </si>
 </sst>
 </file>
@@ -311,11 +324,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,50 +644,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -703,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -732,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -761,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -790,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -804,24 +817,24 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G21" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G24" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" ref="I7:I21" si="1">"05.02.2022"</f>
-        <v>05.02.2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I7:I24" si="1">"05.02.2022"</f>
+        <v>05.02.2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -835,10 +848,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -852,7 +865,7 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -866,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -883,7 +896,7 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -897,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -914,7 +927,7 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -928,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -945,7 +958,7 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -959,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -976,7 +989,7 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -984,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -1007,12 +1020,12 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -1021,10 +1034,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1038,24 +1051,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1069,24 +1082,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1100,24 +1113,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1131,24 +1144,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1162,24 +1175,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1193,24 +1206,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1224,24 +1237,24 @@
         <v>05.02.2022</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1253,6 +1266,96 @@
       <c r="I21" s="16" t="str">
         <f t="shared" si="1"/>
         <v>05.02.2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908C307-1279-4E28-B815-2927EC6DA2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B30A7-3D2E-46CC-80EB-058AE7641CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -198,6 +198,9 @@
   <si>
     <t>Ivan Aleksandur
 Info</t>
+  </si>
+  <si>
+    <t>1331, 1371, Ivan Aleksandur, Info</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,8 +659,8 @@
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="55.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
@@ -823,14 +826,14 @@
         <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G24" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G27" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" ref="I7:I24" si="1">"05.02.2022"</f>
+        <f t="shared" ref="I7:I21" si="1">"05.02.2022"</f>
         <v>05.02.2022</v>
       </c>
     </row>
@@ -1355,6 +1358,96 @@
         <v>11</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>51</v>
       </c>
     </row>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B30A7-3D2E-46CC-80EB-058AE7641CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B47052-6BE8-440C-99C7-BFBDFA0898A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>1331, 1371, Ivan Aleksandur, Info</t>
+  </si>
+  <si>
+    <t>893/927 - Simeon I</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +829,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G27" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G30" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1448,6 +1451,96 @@
         <v>11</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1331</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1331</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>51</v>
       </c>
     </row>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B47052-6BE8-440C-99C7-BFBDFA0898A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D34C9-2CE3-4968-9B88-F8C1161BB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>893/927 - Simeon I</t>
+  </si>
+  <si>
+    <t>Delete Ivan Aleksandur</t>
+  </si>
+  <si>
+    <t>Edit Ivan Aleksandur</t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G30" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G33" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1516,7 +1522,7 @@
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>28</v>
@@ -1541,6 +1547,96 @@
         <v>11</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>51</v>
       </c>
     </row>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D34C9-2CE3-4968-9B88-F8C1161BB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD3F6A-8022-49FE-841A-CAAD3C2C2236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G33" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G36" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1637,6 +1637,96 @@
         <v>11</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="16" t="s">
         <v>51</v>
       </c>
     </row>

--- a/documents/QA documentation.xlsx
+++ b/documents/QA documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Linked-Lists-History\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD3F6A-8022-49FE-841A-CAAD3C2C2236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03B101D-A204-4C79-9336-A29CFA77F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
   <si>
     <t>TEST PLAN &amp; PROGRESS REPORT</t>
   </si>
@@ -210,6 +210,34 @@
   </si>
   <si>
     <t>Edit Ivan Aleksandur</t>
+  </si>
+  <si>
+    <t>void login()</t>
+  </si>
+  <si>
+    <t>log in function</t>
+  </si>
+  <si>
+    <t>Login successful!</t>
+  </si>
+  <si>
+    <t>void registration()</t>
+  </si>
+  <si>
+    <t>register function</t>
+  </si>
+  <si>
+    <t>Register successful!</t>
+  </si>
+  <si>
+    <t>void forgottenPassword()</t>
+  </si>
+  <si>
+    <t>function to view the passord if you have forgot it</t>
+  </si>
+  <si>
+    <t>Your account was found!!!
+Your password is: 123456</t>
   </si>
 </sst>
 </file>
@@ -656,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +863,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G36" si="0">"14.02.2022"</f>
+        <f t="shared" ref="G7:G39" si="0">"14.02.2022"</f>
         <v>14.02.2022</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1727,6 +1755,96 @@
         <v>11</v>
       </c>
       <c r="I36" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>14.02.2022</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>51</v>
       </c>
     </row>
